--- a/Question_Set2/Programming skills/Coding Entry-Level Algorithms.xlsx
+++ b/Question_Set2/Programming skills/Coding Entry-Level Algorithms.xlsx
@@ -16,23 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are given:n: the size of the arrayval1: an integerarr: an array of integersWrite a function that takes the array arr, its size n, and the integer val1 as input and returns an array containing the count of integers that are smaller than, equal to, and greater than val1, respectively.Example:Input:n = 5val1 = 6arr = 2 4 6 8 10Output:2 1 2Explanation:In the given example, there are two integers smaller than 6 (2 and 4), one integer equal to 6, and two integers greater than 6 (8 and 10).', 'ques_type': None, 'options': [], 'score': None}]</t>
+    <t>questions = [
+    {
+        "title": "You are given:n: the size of the arrayval1: an integerarr: an array of integersWrite a function that takes the array arr, its size n, and the integer val1 as input and returns an array containing the count of integers that are smaller than, equal to, and greater than val1, respectively.Example:Input:n = 5val1 = 6arr = 2 4 6 8 10Output:2 1 2Explanation:In the given example, there are two integers smaller than 6 (2 and 4), one integer equal to 6, and two integers greater than 6 (8 and 10).",
+        "ques_type": null,
+        "options": [],
+        "score": null
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +55,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
